--- a/data/trans_bre/P45C_R1-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R1-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.351795026913604</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.6624244734688787</v>
+        <v>-0.6624244734688789</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.1668004601258833</v>
@@ -649,7 +649,7 @@
         <v>2.147590079720344</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.3928154778547334</v>
+        <v>-0.3928154778547335</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,26 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.989042273839616</v>
+        <v>-1.856589292109435</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.696241765939512</v>
+        <v>-2.662499003527475</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.1439208259749454</v>
+        <v>-0.2092961734176467</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.219572287043065</v>
+        <v>-2.208171725346634</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.8323625401510536</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>-0.8849112609820082</v>
-      </c>
+        <v>-0.8212055161757817</v>
+      </c>
+      <c r="H5" s="6" t="inlineStr"/>
       <c r="I5" s="6" t="n">
-        <v>-0.5306482993963256</v>
+        <v>-0.6890089062255756</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.8172138875967309</v>
+        <v>-0.8598535280438272</v>
       </c>
     </row>
     <row r="6">
@@ -692,26 +690,24 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.498876813565988</v>
+        <v>1.483700738803945</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.179425874841149</v>
+        <v>1.135162816136362</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.355300176701109</v>
+        <v>3.189421386744177</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.779065298616775</v>
+        <v>0.6897170343744805</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.426538309465499</v>
-      </c>
-      <c r="H6" s="6" t="n">
-        <v>1.682965935363915</v>
-      </c>
+        <v>2.265887248193574</v>
+      </c>
+      <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
-        <v>1.25428257403862</v>
+        <v>1.07668544323458</v>
       </c>
     </row>
     <row r="7">
@@ -735,7 +731,7 @@
         <v>0.7515380984892455</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.133184244084897</v>
+        <v>1.133184244084898</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6711580332394281</v>
@@ -747,7 +743,7 @@
         <v>0.5917396843825304</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.8998205869724325</v>
+        <v>0.8998205869724331</v>
       </c>
     </row>
     <row r="8">
@@ -758,28 +754,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.081303402105092</v>
+        <v>-1.092086716683232</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.5447535000323692</v>
+        <v>-0.5109473189251947</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.25400353414596</v>
+        <v>-1.15152536713589</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.04236482224104</v>
+        <v>-1.08930347147678</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7414569231027733</v>
+        <v>-0.7856609514938893</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4924622396022862</v>
+        <v>-0.4371836719556699</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7466931754657006</v>
+        <v>-0.7115010874559188</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5691403195776762</v>
+        <v>-0.7166627089542302</v>
       </c>
     </row>
     <row r="9">
@@ -790,26 +786,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.106148652962674</v>
+        <v>2.358338780122524</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.901013143125935</v>
+        <v>3.994662773731466</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.772125660963662</v>
+        <v>2.694421878911437</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.080850661542305</v>
-      </c>
-      <c r="G9" s="6" t="inlineStr"/>
+        <v>3.000159880106014</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>10.60883263439094</v>
+      </c>
       <c r="H9" s="6" t="n">
-        <v>7.013583007418952</v>
+        <v>8.060226301608116</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>6.735087448206749</v>
+        <v>4.656501814041791</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>9.494283930005116</v>
+        <v>6.299253449120909</v>
       </c>
     </row>
     <row r="10">
@@ -856,26 +854,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.105136956010322</v>
+        <v>-1.909964027960583</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.132257958218013</v>
+        <v>-0.9017380804692767</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.319390653403442</v>
+        <v>-1.317536246434698</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.296143484695055</v>
+        <v>-3.461265947916548</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6318148359090286</v>
+        <v>-0.5630607232752417</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.7276159361651626</v>
+        <v>-0.5703062898272633</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>-0.9084245921825127</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
@@ -886,26 +884,26 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.275201332632484</v>
+        <v>4.308221471739464</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.939272626109144</v>
+        <v>3.546157188288482</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7421819522968556</v>
+        <v>0.4800766538663082</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.341475672606463</v>
+        <v>2.067852299957459</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>3.915975326836928</v>
+        <v>5.019183345591058</v>
       </c>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>0.9387977738509897</v>
+        <v>0.7541594299596588</v>
       </c>
     </row>
     <row r="13">
@@ -929,7 +927,7 @@
         <v>-0.01431471489200488</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.01574529556802994</v>
+        <v>0.01574529556803012</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3846039245537396</v>
@@ -941,7 +939,7 @@
         <v>-0.01878231483004184</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.01098694916510757</v>
+        <v>0.0109869491651077</v>
       </c>
     </row>
     <row r="14">
@@ -952,28 +950,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.60310014310954</v>
+        <v>-0.5708826997723874</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.673827655940048</v>
+        <v>-0.7127872506332616</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.7449914689420335</v>
+        <v>-0.748664721934879</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.130584471489853</v>
+        <v>-1.139105800225182</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3285697558353777</v>
+        <v>-0.340660306901736</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5284087517231665</v>
+        <v>-0.5716386182349712</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.7206301634132032</v>
+        <v>-0.7027989415663446</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6054569881398874</v>
+        <v>-0.5865017452323947</v>
       </c>
     </row>
     <row r="15">
@@ -984,28 +982,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.012100940540442</v>
+        <v>2.063650356145519</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.454328214039892</v>
+        <v>1.393839496569326</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8265669746037947</v>
+        <v>0.8139942525967743</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.136391429461369</v>
+        <v>1.116390476211603</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.869735747303595</v>
+        <v>1.844336776233459</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.076425869270088</v>
+        <v>2.387283333835073</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.049054564635999</v>
+        <v>1.881162376307217</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.349093910849671</v>
+        <v>1.190725405392917</v>
       </c>
     </row>
     <row r="16">
@@ -1052,28 +1050,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.596533142251897</v>
+        <v>-1.432131417360215</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.72314846164359</v>
+        <v>-1.562748626121844</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.324652649244224</v>
+        <v>-1.150929885487214</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.464995499019783</v>
+        <v>-1.409676976941251</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.6697337815204544</v>
+        <v>-0.7177182765077268</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.770027540633067</v>
+        <v>-0.7076862838072031</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.7573438439267157</v>
+        <v>-0.6912903856560504</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.4797560266223047</v>
+        <v>-0.4856002246253625</v>
       </c>
     </row>
     <row r="18">
@@ -1084,28 +1082,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.728804768608046</v>
+        <v>1.821947138885472</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8726390314333251</v>
+        <v>0.9838555408241536</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9458985564722646</v>
+        <v>1.085255922393022</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.71061512709593</v>
+        <v>1.813048933319504</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.833578940573221</v>
+        <v>3.870819833870882</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.159281431735432</v>
+        <v>1.444840037733032</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.205093997792108</v>
+        <v>2.612211719685552</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2.001177354834364</v>
+        <v>1.983225496873483</v>
       </c>
     </row>
     <row r="19">
@@ -1129,7 +1127,7 @@
         <v>-1.048448764823674</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-0.7448197779780392</v>
+        <v>-0.7448197779780391</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03022655784406078</v>
@@ -1152,25 +1150,25 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.091388827345677</v>
+        <v>-2.097393688852568</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-0.7442033557941281</v>
+        <v>-0.6653593753822614</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-3.653287736426519</v>
+        <v>-3.980201403382746</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-5.090848304164871</v>
+        <v>-6.108987489036155</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7088840335804601</v>
+        <v>-0.7363752354428679</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4734014634404102</v>
+        <v>-0.4972448771922813</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.8251908239264396</v>
+        <v>-0.8518318062566327</v>
       </c>
       <c r="J20" s="6" t="inlineStr"/>
     </row>
@@ -1182,23 +1180,23 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.174042466711428</v>
+        <v>1.118857492262204</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.942584852765804</v>
+        <v>1.919524376884187</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5542893750043963</v>
+        <v>0.6111617451181059</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.691757008686425</v>
+        <v>0.6530969702618419</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.698317205886837</v>
+        <v>3.23557012498442</v>
       </c>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>0.71396495646861</v>
+        <v>0.7580110458414072</v>
       </c>
       <c r="J21" s="6" t="inlineStr"/>
     </row>
@@ -1246,28 +1244,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.6874328501885255</v>
+        <v>-0.6415223034003124</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.334291075584192</v>
+        <v>-0.2931674503494391</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.2760988959936518</v>
+        <v>-0.316198760732792</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.9121676079736232</v>
+        <v>-0.9309713878385399</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.3336982052499506</v>
+        <v>-0.3082318844398345</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.206940903510587</v>
+        <v>-0.1931406870298589</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.2552676462739166</v>
+        <v>-0.2829830791752907</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.4237450318080898</v>
+        <v>-0.4518011089374224</v>
       </c>
     </row>
     <row r="24">
@@ -1278,28 +1276,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6509123180651381</v>
+        <v>0.6366319336290348</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8636416150849958</v>
+        <v>0.921574319271784</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.818500528438346</v>
+        <v>0.6980347187147777</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.409077142399669</v>
+        <v>0.3013492331764476</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4561705075209574</v>
+        <v>0.4749499429460846</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8544055190739983</v>
+        <v>0.8869416588670923</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.177202517708886</v>
+        <v>1.063109024449292</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.3185312751352026</v>
+        <v>0.2310606903778048</v>
       </c>
     </row>
     <row r="25">
